--- a/static/media/econometrics/03_OLS/OLS (simple example) with R-square.xlsx
+++ b/static/media/econometrics/03_OLS/OLS (simple example) with R-square.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/lecture 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/GitHub Repositories/econ-lecture-notes/static/media/econometrics/03_OLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{79EC3BF7-02F0-4A40-9A45-CAE83E786A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A78C0D90-5814-4ED3-A03F-3D5F82E2741F}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{79EC3BF7-02F0-4A40-9A45-CAE83E786A17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A7E9CF61-6EFE-41C0-BF2C-3974D39D9894}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15195" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
+    <workbookView xWindow="345" yWindow="6345" windowWidth="24780" windowHeight="10275" xr2:uid="{4E05D8B5-309E-4DAC-969D-0C2204A4A3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple OLS example" sheetId="1" r:id="rId1"/>
@@ -2285,13 +2285,15 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="9.140625" style="1"/>
@@ -2398,11 +2400,11 @@
         <v>0.1651688284400592</v>
       </c>
       <c r="J3" s="15">
-        <f>(B3-Y_bar)^2</f>
+        <f t="shared" ref="J3:J34" si="3">(B3-Y_bar)^2</f>
         <v>0.49379108838568164</v>
       </c>
       <c r="K3" s="15">
-        <f>(H3-Y_bar)^2</f>
+        <f t="shared" ref="K3:K34" si="4">(H3-Y_bar)^2</f>
         <v>0.28894266597980639</v>
       </c>
       <c r="L3" s="16">
@@ -2429,11 +2431,11 @@
         <v>330.54054054054041</v>
       </c>
       <c r="F4" s="17">
-        <f t="shared" ref="F4:F67" si="3">D4*E4</f>
+        <f t="shared" ref="F4:F67" si="5">D4*E4</f>
         <v>-1420.4309715120523</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G67" si="4">E4^2</f>
+        <f t="shared" ref="G4:G67" si="6">E4^2</f>
         <v>109257.04894083264</v>
       </c>
       <c r="H4" s="19">
@@ -2441,19 +2443,19 @@
         <v>19.311182710520225</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I67" si="5">B4-H4</f>
+        <f t="shared" ref="I4:I67" si="7">B4-H4</f>
         <v>-2.3111827105202245</v>
       </c>
       <c r="J4" s="19">
-        <f>(B4-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>18.466764061358663</v>
       </c>
       <c r="K4" s="19">
-        <f>(H4-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>3.9446511518086664</v>
       </c>
       <c r="L4" s="20">
-        <f t="shared" ref="L4:L67" si="6">I4^2</f>
+        <f t="shared" ref="L4:L67" si="8">I4^2</f>
         <v>5.3415655214076114</v>
       </c>
     </row>
@@ -2476,11 +2478,11 @@
         <v>-379.45945945945959</v>
       </c>
       <c r="F5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-266.64718772826853</v>
       </c>
       <c r="G5" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>143989.48137326527</v>
       </c>
       <c r="H5" s="19">
@@ -2488,19 +2490,19 @@
         <v>23.577350347039747</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5773503470397472</v>
       </c>
       <c r="J5" s="19">
-        <f>(B5-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>0.49379108838568164</v>
       </c>
       <c r="K5" s="19">
-        <f>(H5-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>5.198641909639842</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4880341173064111</v>
       </c>
     </row>
@@ -2523,11 +2525,11 @@
         <v>230.54054054054041</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-299.07962016070127</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>53148.940832724555</v>
       </c>
       <c r="H6" s="19">
@@ -2535,19 +2537,19 @@
         <v>19.912051391720155</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.7948608279845075E-2</v>
       </c>
       <c r="J6" s="19">
-        <f>(B6-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>1.6829802775748746</v>
       </c>
       <c r="K6" s="19">
-        <f>(H6-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>1.91890621891824</v>
       </c>
       <c r="L6" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.7349576983616339E-3</v>
       </c>
     </row>
@@ -2570,11 +2572,11 @@
         <v>1060.5405405405404</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6678.5390796201609</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1124746.2381300216</v>
       </c>
       <c r="H7" s="19">
@@ -2582,19 +2584,19 @@
         <v>14.924841337760714</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.515866223928569E-2</v>
       </c>
       <c r="J7" s="19">
-        <f>(B7-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>39.65595325054786</v>
       </c>
       <c r="K7" s="19">
-        <f>(H7-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>40.608194956233326</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.648824509599029E-3</v>
       </c>
     </row>
@@ -2617,11 +2619,11 @@
         <v>650.54054054054041</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2145.0255661066471</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>423202.99488677847</v>
       </c>
       <c r="H8" s="19">
@@ -2629,19 +2631,19 @@
         <v>17.388402930680439</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61159706931956137</v>
       </c>
       <c r="J8" s="19">
-        <f>(B8-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K8" s="19">
-        <f>(H8-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>15.279455169369021</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37405097520027636</v>
       </c>
     </row>
@@ -2664,11 +2666,11 @@
         <v>-789.45945945945959</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3712.5931336742146</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>623246.23813002207</v>
       </c>
       <c r="H9" s="19">
@@ -2676,19 +2678,19 @@
         <v>26.040911939959472</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0911939959471511E-2</v>
       </c>
       <c r="J9" s="19">
-        <f>(B9-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>22.115412710007295</v>
       </c>
       <c r="K9" s="19">
-        <f>(H9-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>22.501879878078977</v>
       </c>
       <c r="L9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6737868312474017E-3</v>
       </c>
     </row>
@@ -2711,11 +2713,11 @@
         <v>260.54054054054041</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-337.99853907962023</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>67881.373265156974</v>
       </c>
       <c r="H10" s="19">
@@ -2723,19 +2725,19 @@
         <v>19.731790787360175</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26820921263982456</v>
       </c>
       <c r="J10" s="19">
-        <f>(B10-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>1.6829802775748746</v>
       </c>
       <c r="K10" s="19">
-        <f>(H10-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>2.4508106326555108</v>
       </c>
       <c r="L10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.1936181744874622E-2</v>
       </c>
     </row>
@@ -2758,11 +2760,11 @@
         <v>860.54054054054041</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4558.5390796201609</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>740530.02191380551</v>
       </c>
       <c r="H11" s="19">
@@ -2770,19 +2772,19 @@
         <v>16.126578700160579</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.12657870016057871</v>
       </c>
       <c r="J11" s="19">
-        <f>(B11-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>28.06135865595326</v>
       </c>
       <c r="K11" s="19">
-        <f>(H11-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>26.736330810775524</v>
       </c>
       <c r="L11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6022167334341687E-2</v>
       </c>
     </row>
@@ -2805,11 +2807,11 @@
         <v>380.54054054054041</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-874.21475529583643</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144811.10299488666</v>
       </c>
       <c r="H12" s="19">
@@ -2817,19 +2819,19 @@
         <v>19.010748369920258</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0748369920257517E-2</v>
       </c>
       <c r="J12" s="19">
-        <f>(B12-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K12" s="19">
-        <f>(H12-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>5.2283059972890955</v>
       </c>
       <c r="L12" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1552745594269658E-4</v>
       </c>
     </row>
@@ -2852,11 +2854,11 @@
         <v>1310.5405405405404</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9563.4039444850259</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1717516.5084002919</v>
       </c>
       <c r="H13" s="19">
@@ -2864,19 +2866,19 @@
         <v>13.422669634760883</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.57733036523911707</v>
       </c>
       <c r="J13" s="19">
-        <f>(B13-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>53.250547845142457</v>
       </c>
       <c r="K13" s="19">
-        <f>(H13-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>62.009760823583726</v>
       </c>
       <c r="L13" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33331035062713232</v>
       </c>
     </row>
@@ -2899,11 +2901,11 @@
         <v>880.54054054054041</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6425.5661066471876</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>775351.64353542705</v>
       </c>
       <c r="H14" s="19">
@@ -2911,19 +2913,19 @@
         <v>16.006404963920595</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0064049639205948</v>
       </c>
       <c r="J14" s="19">
-        <f>(B14-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>53.250547845142457</v>
       </c>
       <c r="K14" s="19">
-        <f>(H14-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>27.993541683384379</v>
       </c>
       <c r="L14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0256608792452031</v>
       </c>
     </row>
@@ -2946,11 +2948,11 @@
         <v>1270.5405405405404</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-377.72826880935105</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1614273.2651570486</v>
       </c>
       <c r="H15" s="19">
@@ -2958,19 +2960,19 @@
         <v>13.663017107240858</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.3369828927591421</v>
       </c>
       <c r="J15" s="19">
-        <f>(B15-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>8.8385682980278144E-2</v>
       </c>
       <c r="K15" s="19">
-        <f>(H15-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>58.2822340202882</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53.831317968640306</v>
       </c>
     </row>
@@ -2993,11 +2995,11 @@
         <v>-909.45945945945959</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7005.2958363769176</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>827116.50840029249</v>
       </c>
       <c r="H16" s="19">
@@ -3005,19 +3007,19 @@
         <v>26.761954357399389</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2380456426006106</v>
       </c>
       <c r="J16" s="19">
-        <f>(B16-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>59.331628926223509</v>
       </c>
       <c r="K16" s="19">
-        <f>(H16-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>29.862476784523629</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.0088482983635796</v>
       </c>
     </row>
@@ -3040,11 +3042,11 @@
         <v>670.54054054054041</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3552.0525931336742</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>449624.61650840013</v>
       </c>
       <c r="H17" s="19">
@@ -3052,19 +3054,19 @@
         <v>17.268229194440451</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2682291944404511</v>
       </c>
       <c r="J17" s="19">
-        <f>(B17-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>28.06135865595326</v>
       </c>
       <c r="K17" s="19">
-        <f>(H17-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>16.233389777458473</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6084052896310757</v>
       </c>
     </row>
@@ -3087,11 +3089,11 @@
         <v>160.54054054054041</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112.81227173119041</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25773.265157048896</v>
       </c>
       <c r="H18" s="19">
@@ -3099,19 +3101,19 @@
         <v>20.332659468560109</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6673405314398906</v>
       </c>
       <c r="J18" s="19">
-        <f>(B18-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>0.49379108838568164</v>
       </c>
       <c r="K18" s="19">
-        <f>(H18-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>0.93052614063079808</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7800244477822567</v>
       </c>
     </row>
@@ -3134,11 +3136,11 @@
         <v>200.54054054054041</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140.92037983929848</v>
       </c>
       <c r="G19" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40216.508400292128</v>
       </c>
       <c r="H19" s="19">
@@ -3146,19 +3148,19 @@
         <v>20.092311996080138</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.907688003919862</v>
       </c>
       <c r="J19" s="19">
-        <f>(B19-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>0.49379108838568164</v>
       </c>
       <c r="K19" s="19">
-        <f>(H19-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>1.4519895761494106</v>
       </c>
       <c r="L19" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6392735202997475</v>
       </c>
     </row>
@@ -3181,11 +3183,11 @@
         <v>-269.45945945945959</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-728.26880934989049</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72608.400292184146</v>
       </c>
       <c r="H20" s="19">
@@ -3193,19 +3195,19 @@
         <v>22.916394797719821</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0836052022801788</v>
       </c>
       <c r="J20" s="19">
-        <f>(B20-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>7.3046018991964887</v>
       </c>
       <c r="K20" s="19">
-        <f>(H20-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>2.6214767158744618</v>
       </c>
       <c r="L20" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1742002344086671</v>
       </c>
     </row>
@@ -3228,11 +3230,11 @@
         <v>410.54054054054041</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-943.13367421475539</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>168543.53542731909</v>
       </c>
       <c r="H21" s="19">
@@ -3240,19 +3242,19 @@
         <v>18.830487765560278</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16951223443972196</v>
       </c>
       <c r="J21" s="19">
-        <f>(B21-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K21" s="19">
-        <f>(H21-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>6.0851492658686173</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8734397624747263E-2</v>
       </c>
     </row>
@@ -3275,11 +3277,11 @@
         <v>-899.45945945945959</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7827.7282688093501</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>809027.31921110325</v>
       </c>
       <c r="H22" s="19">
@@ -3287,19 +3289,19 @@
         <v>26.701867489279394</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2981325107206061</v>
       </c>
       <c r="J22" s="19">
-        <f>(B22-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>75.737034331628905</v>
       </c>
       <c r="K22" s="19">
-        <f>(H22-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>29.209378960061386</v>
       </c>
       <c r="L22" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.87767805827221</v>
       </c>
     </row>
@@ -3322,11 +3324,11 @@
         <v>580.54054054054041</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1914.2147552958365</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>337027.31921110285</v>
       </c>
       <c r="H23" s="19">
@@ -3334,19 +3336,19 @@
         <v>17.809011007520393</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19098899247960688</v>
       </c>
       <c r="J23" s="19">
-        <f>(B23-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K23" s="19">
-        <f>(H23-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>12.168141239445527</v>
       </c>
       <c r="L23" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6476795248375334E-2</v>
       </c>
     </row>
@@ -3369,11 +3371,11 @@
         <v>580.54054054054041</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3075.2958363769171</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>337027.31921110285</v>
       </c>
       <c r="H24" s="19">
@@ -3381,19 +3383,19 @@
         <v>17.809011007520393</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8090110075203931</v>
       </c>
       <c r="J24" s="19">
-        <f>(B24-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>28.06135865595326</v>
       </c>
       <c r="K24" s="19">
-        <f>(H24-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>12.168141239445527</v>
       </c>
       <c r="L24" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.272520825329948</v>
       </c>
     </row>
@@ -3416,11 +3418,11 @@
         <v>720.54054054054041</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3096.3769174579988</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>519178.67056245415</v>
       </c>
       <c r="H25" s="19">
@@ -3428,19 +3430,19 @@
         <v>16.967794853840488</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.220514615951231E-2</v>
       </c>
       <c r="J25" s="19">
-        <f>(B25-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>18.466764061358663</v>
       </c>
       <c r="K25" s="19">
-        <f>(H25-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>18.744591407898493</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0371714391555504E-3</v>
       </c>
     </row>
@@ -3463,11 +3465,11 @@
         <v>-1219.4594594594596</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8173.6742147552959</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1487081.3732651575</v>
       </c>
       <c r="H26" s="19">
@@ -3475,19 +3477,19 @@
         <v>28.62464726911918</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.62464726911917978</v>
       </c>
       <c r="J26" s="19">
-        <f>(B26-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>44.926223520818105</v>
       </c>
       <c r="K26" s="19">
-        <f>(H26-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>53.690057609558131</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39018421081804899</v>
       </c>
     </row>
@@ -3510,11 +3512,11 @@
         <v>-369.45945945945959</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>109.83929875821808</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>136500.29218407607</v>
       </c>
       <c r="H27" s="19">
@@ -3522,19 +3524,19 @@
         <v>23.517263478919752</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.5172634789197517</v>
       </c>
       <c r="J27" s="19">
-        <f>(B27-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>8.8385682980278144E-2</v>
       </c>
       <c r="K27" s="19">
-        <f>(H27-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>4.9282498475473755</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3366154223031712</v>
       </c>
     </row>
@@ -3557,11 +3559,11 @@
         <v>1820.5405405405404</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-16926.106647187728</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3314367.8597516431</v>
       </c>
       <c r="H28" s="19">
@@ -3569,19 +3571,19 @@
         <v>10.358239360641225</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6417606393587754</v>
       </c>
       <c r="J28" s="19">
-        <f>(B28-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>86.439737034331642</v>
       </c>
       <c r="K28" s="19">
-        <f>(H28-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>119.66298854151823</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6953779969477347</v>
       </c>
     </row>
@@ -3604,11 +3606,11 @@
         <v>1700.5405405405404</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-15810.430971512053</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2891838.1300219134</v>
       </c>
       <c r="H29" s="19">
@@ -3616,19 +3618,19 @@
         <v>11.079281778081146</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92071822191885389</v>
       </c>
       <c r="J29" s="19">
-        <f>(B29-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>86.439737034331642</v>
       </c>
       <c r="K29" s="19">
-        <f>(H29-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>104.40784115094213</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.8477220441734159</v>
       </c>
     </row>
@@ -3651,11 +3653,11 @@
         <v>810.54054054054041</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5914.7552958363767</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>656975.96785975143</v>
       </c>
       <c r="H30" s="19">
@@ -3663,19 +3665,19 @@
         <v>16.427013040760546</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4270130407605457</v>
       </c>
       <c r="J30" s="19">
-        <f>(B30-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>53.250547845142457</v>
       </c>
       <c r="K30" s="19">
-        <f>(H30-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>23.71966873946975</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.89039230002175</v>
       </c>
     </row>
@@ -3698,11 +3700,11 @@
         <v>-439.45945945945959</v>
       </c>
       <c r="F31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-308.80934989043067</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>193124.61650840042</v>
       </c>
       <c r="H31" s="19">
@@ -3710,19 +3712,19 @@
         <v>23.937871555759706</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9378715557597062</v>
       </c>
       <c r="J31" s="19">
-        <f>(B31-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>0.49379108838568164</v>
       </c>
       <c r="K31" s="19">
-        <f>(H31-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>6.9726324144542957</v>
       </c>
       <c r="L31" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7553461666225441</v>
       </c>
     </row>
@@ -3745,11 +3747,11 @@
         <v>1040.5405405405404</v>
       </c>
       <c r="F32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7593.133674214755</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1082724.6165084001</v>
       </c>
       <c r="H32" s="19">
@@ -3757,19 +3759,19 @@
         <v>15.045015074000702</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0450150740007018</v>
       </c>
       <c r="J32" s="19">
-        <f>(B32-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>53.250547845142457</v>
       </c>
       <c r="K32" s="19">
-        <f>(H32-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>39.091032999750631</v>
       </c>
       <c r="L32" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0920565048886923</v>
       </c>
     </row>
@@ -3792,11 +3794,11 @@
         <v>700.54054054054041</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4411.5120525931334</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>490757.04894083255</v>
       </c>
       <c r="H33" s="19">
@@ -3804,19 +3806,19 @@
         <v>17.087968590080472</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0879685900804716</v>
       </c>
       <c r="J33" s="19">
-        <f>(B33-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>39.65595325054786</v>
       </c>
       <c r="K33" s="19">
-        <f>(H33-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>17.718448165399682</v>
       </c>
       <c r="L33" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3596128331626325</v>
       </c>
     </row>
@@ -3839,11 +3841,11 @@
         <v>350.54054054054041</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1155.836376917458</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>122878.67056245425</v>
       </c>
       <c r="H34" s="19">
@@ -3851,19 +3853,19 @@
         <v>19.191008974280237</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.191008974280237</v>
       </c>
       <c r="J34" s="19">
-        <f>(B34-Y_bar)^2</f>
+        <f t="shared" si="3"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K34" s="19">
-        <f>(H34-Y_bar)^2</f>
+        <f t="shared" si="4"/>
         <v>4.4364504996780241</v>
       </c>
       <c r="L34" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4185023768160623</v>
       </c>
     </row>
@@ -3878,39 +3880,39 @@
         <v>4130</v>
       </c>
       <c r="D35" s="17">
-        <f t="shared" ref="D35:D66" si="7">(B35-Y_bar)</f>
+        <f t="shared" ref="D35:D66" si="9">(B35-Y_bar)</f>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" ref="E35:E66" si="8">(C35-x_bar)</f>
+        <f t="shared" ref="E35:E66" si="10">(C35-x_bar)</f>
         <v>1110.5405405405404</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8103.9444850255659</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1233300.2921840756</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" ref="H35:H66" si="9">beta_0+beta_1*C35</f>
+        <f t="shared" ref="H35:H66" si="11">beta_0+beta_1*C35</f>
         <v>14.624406997160747</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.62440699716074732</v>
       </c>
       <c r="J35" s="19">
-        <f>(B35-Y_bar)^2</f>
+        <f t="shared" ref="J35:J66" si="12">(B35-Y_bar)^2</f>
         <v>53.250547845142457</v>
       </c>
       <c r="K35" s="19">
-        <f>(H35-Y_bar)^2</f>
+        <f t="shared" ref="K35:K66" si="13">(H35-Y_bar)^2</f>
         <v>44.52746495765647</v>
       </c>
       <c r="L35" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38988409810330149</v>
       </c>
     </row>
@@ -3925,39 +3927,39 @@
         <v>2830</v>
       </c>
       <c r="D36" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2972972972972983</v>
       </c>
       <c r="E36" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-189.45945945945959</v>
       </c>
       <c r="F36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>245.78524470416397</v>
       </c>
       <c r="G36" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35894.886778670611</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.435699852759875</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4356998527598748</v>
       </c>
       <c r="J36" s="19">
-        <f>(B36-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>1.6829802775748746</v>
       </c>
       <c r="K36" s="19">
-        <f>(H36-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>1.2959603782837246</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9326337727344756</v>
       </c>
     </row>
@@ -3972,39 +3974,39 @@
         <v>4060</v>
       </c>
       <c r="D37" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1040.5405405405404</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-309.34989043097249</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1082724.6165084001</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.045015074000702</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9549849259992982</v>
       </c>
       <c r="J37" s="19">
-        <f>(B37-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>8.8385682980278144E-2</v>
       </c>
       <c r="K37" s="19">
-        <f>(H37-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>39.091032999750631</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35.46184546887887</v>
       </c>
     </row>
@@ -4019,39 +4021,39 @@
         <v>3310</v>
       </c>
       <c r="D38" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>290.54054054054041</v>
       </c>
       <c r="F38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-667.45799853907954</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>84413.8056975894</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.551530183000196</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.55153018300019596</v>
       </c>
       <c r="J38" s="19">
-        <f>(B38-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K38" s="19">
-        <f>(H38-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>3.0477028173612317</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30418554276022963</v>
       </c>
     </row>
@@ -4066,39 +4068,39 @@
         <v>3300</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E39" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>280.54054054054041</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-644.48502556610663</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78702.994886778601</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.611617051120191</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.61161705112019149</v>
       </c>
       <c r="J39" s="19">
-        <f>(B39-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K39" s="19">
-        <f>(H39-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>2.8415178923517113</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37407541722095894</v>
       </c>
     </row>
@@ -4113,39 +4115,39 @@
         <v>3690</v>
       </c>
       <c r="D40" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>670.54054054054041</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2210.9715120525934</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>449624.61650840013</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.268229194440451</v>
       </c>
       <c r="I40" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73177080555954888</v>
       </c>
       <c r="J40" s="19">
-        <f>(B40-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K40" s="19">
-        <f>(H40-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>16.233389777458473</v>
       </c>
       <c r="L40" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.53548851186927104</v>
       </c>
     </row>
@@ -4160,39 +4162,39 @@
         <v>3370</v>
       </c>
       <c r="D41" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E41" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>350.54054054054041</v>
       </c>
       <c r="F41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-805.29583637691746</v>
       </c>
       <c r="G41" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>122878.67056245425</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.191008974280237</v>
       </c>
       <c r="I41" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.191008974280237</v>
       </c>
       <c r="J41" s="19">
-        <f>(B41-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K41" s="19">
-        <f>(H41-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>4.4364504996780241</v>
       </c>
       <c r="L41" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6484428255588237E-2</v>
       </c>
     </row>
@@ -4207,39 +4209,39 @@
         <v>2730</v>
       </c>
       <c r="D42" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E42" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-289.45945945945959</v>
       </c>
       <c r="F42" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-782.32286340394455</v>
       </c>
       <c r="G42" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>83786.778670562533</v>
       </c>
       <c r="H42" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23.036568533959805</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.96343146604019481</v>
       </c>
       <c r="J42" s="19">
-        <f>(B42-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>7.3046018991964887</v>
       </c>
       <c r="K42" s="19">
-        <f>(H42-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>3.0250644346815263</v>
       </c>
       <c r="L42" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92820018975635898</v>
       </c>
     </row>
@@ -4254,39 +4256,39 @@
         <v>4030</v>
       </c>
       <c r="D43" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-5.2972972972972983</v>
       </c>
       <c r="E43" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1010.5405405405404</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5353.133674214756</v>
       </c>
       <c r="G43" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1021192.1840759676</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.225275678360681</v>
       </c>
       <c r="I43" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7747243216393187</v>
       </c>
       <c r="J43" s="19">
-        <f>(B43-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>28.06135865595326</v>
       </c>
       <c r="K43" s="19">
-        <f>(H43-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>36.869446540833657</v>
       </c>
       <c r="L43" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.60019777453950252</v>
       </c>
     </row>
@@ -4301,39 +4303,39 @@
         <v>3260</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7027027027027017</v>
       </c>
       <c r="E44" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>240.54054054054041</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1612.271731190649</v>
       </c>
       <c r="G44" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>57859.751643535361</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.851964523600163</v>
       </c>
       <c r="I44" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.1480354763998371</v>
       </c>
       <c r="J44" s="19">
-        <f>(B44-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>44.926223520818105</v>
       </c>
       <c r="K44" s="19">
-        <f>(H44-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>2.0889868267230547</v>
       </c>
       <c r="L44" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66.390482124670314</v>
       </c>
     </row>
@@ -4348,39 +4350,39 @@
         <v>1800</v>
       </c>
       <c r="D45" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.702702702702702</v>
       </c>
       <c r="E45" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1219.4594594594596</v>
       </c>
       <c r="F45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-15490.430971512053</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1487081.3732651575</v>
       </c>
       <c r="H45" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28.62464726911918</v>
       </c>
       <c r="I45" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.3753527308808202</v>
       </c>
       <c r="J45" s="19">
-        <f>(B45-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>161.35865595325052</v>
       </c>
       <c r="K45" s="19">
-        <f>(H45-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>53.690057609558131</v>
       </c>
       <c r="L45" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28.894416981387891</v>
       </c>
     </row>
@@ -4395,39 +4397,39 @@
         <v>2200</v>
       </c>
       <c r="D46" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E46" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-819.45945945945959</v>
       </c>
       <c r="F46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3034.2147552958363</v>
       </c>
       <c r="G46" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>671513.80569758965</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26.221172544319451</v>
       </c>
       <c r="I46" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.221172544319451</v>
       </c>
       <c r="J46" s="19">
-        <f>(B46-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>13.710007304601891</v>
       </c>
       <c r="K46" s="19">
-        <f>(H46-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>24.244547448237466</v>
       </c>
       <c r="L46" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4912623829996414</v>
       </c>
     </row>
@@ -4442,39 +4444,39 @@
         <v>2520</v>
       </c>
       <c r="D47" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7027027027027017</v>
       </c>
       <c r="E47" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-499.45945945945959</v>
       </c>
       <c r="F47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2348.8093498904313</v>
       </c>
       <c r="G47" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>249459.75164353556</v>
       </c>
       <c r="H47" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24.298392764479665</v>
       </c>
       <c r="I47" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7016072355203349</v>
       </c>
       <c r="J47" s="19">
-        <f>(B47-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>22.115412710007295</v>
       </c>
       <c r="K47" s="19">
-        <f>(H47-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>9.0065740031425481</v>
       </c>
       <c r="L47" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8954671839751565</v>
       </c>
     </row>
@@ -4489,39 +4491,39 @@
         <v>3330</v>
       </c>
       <c r="D48" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E48" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>310.54054054054041</v>
       </c>
       <c r="F48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1023.944485025566</v>
       </c>
       <c r="G48" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96435.427319211012</v>
       </c>
       <c r="H48" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.431356446760212</v>
       </c>
       <c r="I48" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.431356446760212</v>
       </c>
       <c r="J48" s="19">
-        <f>(B48-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K48" s="19">
-        <f>(H48-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>3.4817352577030647</v>
       </c>
       <c r="L48" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0487812776820196</v>
       </c>
     </row>
@@ -4536,39 +4538,39 @@
         <v>3700</v>
       </c>
       <c r="D49" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E49" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>680.54054054054041</v>
       </c>
       <c r="F49" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2243.9444850255663</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>463135.4273192109</v>
       </c>
       <c r="H49" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.208142326320459</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79185767367954085</v>
       </c>
       <c r="J49" s="19">
-        <f>(B49-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K49" s="19">
-        <f>(H49-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>16.721188376664593</v>
       </c>
       <c r="L49" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.62703857536517416</v>
       </c>
     </row>
@@ -4583,39 +4585,39 @@
         <v>3470</v>
       </c>
       <c r="D50" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E50" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>450.54054054054041</v>
       </c>
       <c r="F50" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1485.5661066471878</v>
       </c>
       <c r="G50" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>202986.77867056234</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.590140293080303</v>
       </c>
       <c r="I50" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.59014029308030302</v>
       </c>
       <c r="J50" s="19">
-        <f>(B50-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K50" s="19">
-        <f>(H50-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>7.3286990454811365</v>
       </c>
       <c r="L50" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.34826556551690596</v>
       </c>
     </row>
@@ -4630,39 +4632,39 @@
         <v>3210</v>
       </c>
       <c r="D51" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E51" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>190.54054054054041</v>
       </c>
       <c r="F51" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-437.72826880934974</v>
       </c>
       <c r="G51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36305.697589481322</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.15239886420013</v>
       </c>
       <c r="I51" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1523988642001299</v>
       </c>
       <c r="J51" s="19">
-        <f>(B51-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K51" s="19">
-        <f>(H51-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>1.3107924221083511</v>
       </c>
       <c r="L51" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3280231422097495</v>
       </c>
     </row>
@@ -4677,39 +4679,39 @@
         <v>3200</v>
       </c>
       <c r="D52" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E52" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>180.54054054054041</v>
       </c>
       <c r="F52" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-414.75529583637677</v>
       </c>
       <c r="G52" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32594.886778670512</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.212485732320122</v>
       </c>
       <c r="I52" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2124857323201219</v>
       </c>
       <c r="J52" s="19">
-        <f>(B52-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K52" s="19">
-        <f>(H52-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>1.1768161315082304</v>
       </c>
       <c r="L52" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4701216510798623</v>
       </c>
     </row>
@@ -4724,39 +4726,39 @@
         <v>3420</v>
       </c>
       <c r="D53" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2972972972972983</v>
       </c>
       <c r="E53" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400.54054054054041</v>
       </c>
       <c r="F53" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-920.16070124178236</v>
       </c>
       <c r="G53" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>160432.72461650829</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.89057463368027</v>
       </c>
       <c r="I53" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10942536631972999</v>
       </c>
       <c r="J53" s="19">
-        <f>(B53-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>5.2775748721694713</v>
       </c>
       <c r="K53" s="19">
-        <f>(H53-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>5.7923139795678429</v>
       </c>
       <c r="L53" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1973910794207098E-2</v>
       </c>
     </row>
@@ -4771,39 +4773,39 @@
         <v>2690</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E54" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-329.45945945945959</v>
       </c>
       <c r="F54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-890.43097151205268</v>
       </c>
       <c r="G54" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108543.53542731929</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23.27691600643978</v>
       </c>
       <c r="I54" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7230839935602198</v>
       </c>
       <c r="J54" s="19">
-        <f>(B54-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>7.3046018991964887</v>
       </c>
       <c r="K54" s="19">
-        <f>(H54-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>3.9188902335869464</v>
       </c>
       <c r="L54" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.52285046174299599</v>
       </c>
     </row>
@@ -4818,39 +4820,39 @@
         <v>2830</v>
       </c>
       <c r="D55" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.2972972972972983</v>
       </c>
       <c r="E55" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-189.45945945945959</v>
       </c>
       <c r="F55" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>814.16362308254281</v>
       </c>
       <c r="G55" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35894.886778670611</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.435699852759875</v>
       </c>
       <c r="I55" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.4356998527598748</v>
       </c>
       <c r="J55" s="19">
-        <f>(B55-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>18.466764061358663</v>
       </c>
       <c r="K55" s="19">
-        <f>(H55-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>1.2959603782837246</v>
       </c>
       <c r="L55" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29.546832889293725</v>
       </c>
     </row>
@@ -4865,39 +4867,39 @@
         <v>2070</v>
       </c>
       <c r="D56" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7027027027027017</v>
       </c>
       <c r="E56" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-949.45945945945959</v>
       </c>
       <c r="F56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1616.6471877282681</v>
       </c>
       <c r="G56" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>901473.26515704917</v>
       </c>
       <c r="H56" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27.002301829879364</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0023018298793644</v>
       </c>
       <c r="J56" s="19">
-        <f>(B56-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>2.8991964937910852</v>
       </c>
       <c r="K56" s="19">
-        <f>(H56-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>32.547076716781916</v>
       </c>
       <c r="L56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.018419937455707</v>
       </c>
     </row>
@@ -4912,39 +4914,39 @@
         <v>2650</v>
       </c>
       <c r="D57" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E57" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-369.45945945945959</v>
       </c>
       <c r="F57" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1367.9985390796203</v>
       </c>
       <c r="G57" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>136500.29218407607</v>
       </c>
       <c r="H57" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23.517263478919752</v>
       </c>
       <c r="I57" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4827365210802483</v>
       </c>
       <c r="J57" s="19">
-        <f>(B57-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>13.710007304601891</v>
       </c>
       <c r="K57" s="19">
-        <f>(H57-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>4.9282498475473755</v>
       </c>
       <c r="L57" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1985075909451579</v>
       </c>
     </row>
@@ -4959,39 +4961,39 @@
         <v>2370</v>
       </c>
       <c r="D58" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7027027027027017</v>
       </c>
       <c r="E58" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-649.45945945945959</v>
       </c>
       <c r="F58" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1105.8363769174575</v>
       </c>
       <c r="G58" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>421797.58948137343</v>
       </c>
       <c r="H58" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25.199695786279563</v>
       </c>
       <c r="I58" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1996957862795625</v>
       </c>
       <c r="J58" s="19">
-        <f>(B58-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>2.8991964937910852</v>
       </c>
       <c r="K58" s="19">
-        <f>(H58-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>15.228713966811059</v>
       </c>
       <c r="L58" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.8386615521760632</v>
       </c>
     </row>
@@ -5006,39 +5008,39 @@
         <v>2020</v>
       </c>
       <c r="D59" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.702702702702702</v>
       </c>
       <c r="E59" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-999.45945945945959</v>
       </c>
       <c r="F59" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-13695.295836376918</v>
       </c>
       <c r="G59" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>998919.21110299521</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27.302736170479328</v>
       </c>
       <c r="I59" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.6972638295206721</v>
       </c>
       <c r="J59" s="19">
-        <f>(B59-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>187.76406135865594</v>
       </c>
       <c r="K59" s="19">
-        <f>(H59-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>36.065296059525849</v>
       </c>
       <c r="L59" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>59.247870461247246</v>
       </c>
     </row>
@@ -5053,39 +5055,39 @@
         <v>2280</v>
       </c>
       <c r="D60" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7027027027027017</v>
       </c>
       <c r="E60" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-739.45945945945959</v>
       </c>
       <c r="F60" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1998.5390796201605</v>
       </c>
       <c r="G60" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>546800.29218407616</v>
       </c>
       <c r="H60" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25.740477599359505</v>
       </c>
       <c r="I60" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7404775993595045</v>
       </c>
       <c r="J60" s="19">
-        <f>(B60-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>7.3046018991964887</v>
       </c>
       <c r="K60" s="19">
-        <f>(H60-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>19.741851196633597</v>
       </c>
       <c r="L60" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0292622738722241</v>
       </c>
     </row>
@@ -5100,39 +5102,39 @@
         <v>2750</v>
       </c>
       <c r="D61" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E61" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-269.45945945945959</v>
       </c>
       <c r="F61" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80.109569028488252</v>
       </c>
       <c r="G61" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72608.400292184146</v>
       </c>
       <c r="H61" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.916394797719821</v>
       </c>
       <c r="I61" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9163947977198212</v>
       </c>
       <c r="J61" s="19">
-        <f>(B61-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>8.8385682980278144E-2</v>
       </c>
       <c r="K61" s="19">
-        <f>(H61-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>2.6214767158744618</v>
       </c>
       <c r="L61" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6725690207275945</v>
       </c>
     </row>
@@ -5147,39 +5149,39 @@
         <v>2130</v>
       </c>
       <c r="D62" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.29729729729729826</v>
       </c>
       <c r="E62" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-889.45945945945959</v>
       </c>
       <c r="F62" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>264.43389335281319</v>
       </c>
       <c r="G62" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>791138.13002191402</v>
       </c>
       <c r="H62" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26.641780621159405</v>
       </c>
       <c r="I62" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.6417806211594055</v>
       </c>
       <c r="J62" s="19">
-        <f>(B62-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>8.8385682980278144E-2</v>
       </c>
       <c r="K62" s="19">
-        <f>(H62-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>28.563501999040156</v>
       </c>
       <c r="L62" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.829688577289808</v>
       </c>
     </row>
@@ -5194,39 +5196,39 @@
         <v>2240</v>
       </c>
       <c r="D63" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E63" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-779.45945945945959</v>
       </c>
       <c r="F63" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2886.106647187728</v>
       </c>
       <c r="G63" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>607557.04894083296</v>
       </c>
       <c r="H63" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25.980825071839476</v>
       </c>
       <c r="I63" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.98082507183947598</v>
       </c>
       <c r="J63" s="19">
-        <f>(B63-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>13.710007304601891</v>
       </c>
       <c r="K63" s="19">
-        <f>(H63-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>21.935432414908004</v>
       </c>
       <c r="L63" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96201782154891324</v>
       </c>
     </row>
@@ -5241,39 +5243,39 @@
         <v>1760</v>
       </c>
       <c r="D64" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7027027027027017</v>
       </c>
       <c r="E64" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1259.4594594594596</v>
       </c>
       <c r="F64" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8441.7823228634043</v>
       </c>
       <c r="G64" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1586238.1300219141</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28.864994741599155</v>
       </c>
       <c r="I64" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.86499474159915479</v>
       </c>
       <c r="J64" s="19">
-        <f>(B64-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>44.926223520818105</v>
       </c>
       <c r="K64" s="19">
-        <f>(H64-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>57.270044608492853</v>
       </c>
       <c r="L64" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.74821590299418861</v>
       </c>
     </row>
@@ -5288,39 +5290,39 @@
         <v>1980</v>
       </c>
       <c r="D65" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7027027027027017</v>
       </c>
       <c r="E65" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1039.4594594594596</v>
       </c>
       <c r="F65" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9046.1066471877293</v>
       </c>
       <c r="G65" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080475.967859752</v>
       </c>
       <c r="H65" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27.543083642959303</v>
       </c>
       <c r="I65" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4569163570406971</v>
       </c>
       <c r="J65" s="19">
-        <f>(B65-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>75.737034331628905</v>
       </c>
       <c r="K65" s="19">
-        <f>(H65-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>39.009847075657937</v>
       </c>
       <c r="L65" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0364379854941301</v>
       </c>
     </row>
@@ -5335,39 +5337,39 @@
         <v>3420</v>
       </c>
       <c r="D66" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.2972972972972983</v>
       </c>
       <c r="E66" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400.54054054054041</v>
       </c>
       <c r="F66" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2922.8634039444846</v>
       </c>
       <c r="G66" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>160432.72461650829</v>
       </c>
       <c r="H66" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.89057463368027</v>
       </c>
       <c r="I66" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.89057463368027</v>
       </c>
       <c r="J66" s="19">
-        <f>(B66-Y_bar)^2</f>
+        <f t="shared" si="12"/>
         <v>53.250547845142457</v>
       </c>
       <c r="K66" s="19">
-        <f>(H66-Y_bar)^2</f>
+        <f t="shared" si="13"/>
         <v>5.7923139795678429</v>
       </c>
       <c r="L66" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23.917720247596908</v>
       </c>
     </row>
@@ -5382,39 +5384,39 @@
         <v>1830</v>
       </c>
       <c r="D67" s="17">
-        <f t="shared" ref="D67:D76" si="10">(B67-Y_bar)</f>
+        <f t="shared" ref="D67:D76" si="14">(B67-Y_bar)</f>
         <v>4.7027027027027017</v>
       </c>
       <c r="E67" s="17">
-        <f t="shared" ref="E67:E76" si="11">(C67-x_bar)</f>
+        <f t="shared" ref="E67:E76" si="15">(C67-x_bar)</f>
         <v>-1189.4594594594596</v>
       </c>
       <c r="F67" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5593.674214755295</v>
       </c>
       <c r="G67" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1414813.8056975899</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" ref="H67:H76" si="12">beta_0+beta_1*C67</f>
+        <f t="shared" ref="H67:H76" si="16">beta_0+beta_1*C67</f>
         <v>28.4443866647592</v>
       </c>
       <c r="I67" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4443866647592003</v>
       </c>
       <c r="J67" s="19">
-        <f>(B67-Y_bar)^2</f>
+        <f t="shared" ref="J67:J76" si="17">(B67-Y_bar)^2</f>
         <v>22.115412710007295</v>
       </c>
       <c r="K67" s="19">
-        <f>(H67-Y_bar)^2</f>
+        <f t="shared" ref="K67:K76" si="18">(H67-Y_bar)^2</f>
         <v>51.08088642648697</v>
       </c>
       <c r="L67" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.975026166852607</v>
       </c>
     </row>
@@ -5429,39 +5431,39 @@
         <v>2050</v>
       </c>
       <c r="D68" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>13.702702702702702</v>
       </c>
       <c r="E68" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-969.45945945945959</v>
       </c>
       <c r="F68" s="17">
-        <f t="shared" ref="F68:F76" si="13">D68*E68</f>
+        <f t="shared" ref="F68:F76" si="19">D68*E68</f>
         <v>-13284.214755295838</v>
       </c>
       <c r="G68" s="18">
-        <f t="shared" ref="G68:G76" si="14">E68^2</f>
+        <f t="shared" ref="G68:G76" si="20">E68^2</f>
         <v>939851.64353542763</v>
       </c>
       <c r="H68" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>27.122475566119348</v>
       </c>
       <c r="I68" s="20">
-        <f t="shared" ref="I68:I76" si="15">B68-H68</f>
+        <f t="shared" ref="I68:I76" si="21">B68-H68</f>
         <v>7.8775244338806516</v>
       </c>
       <c r="J68" s="19">
-        <f>(B68-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>187.76406135865594</v>
       </c>
       <c r="K68" s="19">
-        <f>(H68-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>33.932701863556659</v>
       </c>
       <c r="L68" s="20">
-        <f t="shared" ref="L68:L76" si="16">I68^2</f>
+        <f t="shared" ref="L68:L76" si="22">I68^2</f>
         <v>62.05539120638668</v>
       </c>
     </row>
@@ -5476,39 +5478,39 @@
         <v>2410</v>
       </c>
       <c r="D69" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E69" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-609.45945945945959</v>
       </c>
       <c r="F69" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2009.5690284879483</v>
       </c>
       <c r="G69" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>371440.83272461669</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>24.959348313799591</v>
       </c>
       <c r="I69" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-6.9593483137995911</v>
       </c>
       <c r="J69" s="19">
-        <f>(B69-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K69" s="19">
-        <f>(H69-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>13.410617647465475</v>
       </c>
       <c r="L69" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>48.432528952785212</v>
       </c>
     </row>
@@ -5523,39 +5525,39 @@
         <v>2200</v>
       </c>
       <c r="D70" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.7027027027027017</v>
       </c>
       <c r="E70" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-819.45945945945959</v>
       </c>
       <c r="F70" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-7950.9715120525934</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>671513.80569758965</v>
       </c>
       <c r="H70" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>26.221172544319451</v>
       </c>
       <c r="I70" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.778827455680549</v>
       </c>
       <c r="J70" s="19">
-        <f>(B70-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>94.142439737034309</v>
       </c>
       <c r="K70" s="19">
-        <f>(H70-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>24.244547448237466</v>
       </c>
       <c r="L70" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>22.837191851166228</v>
       </c>
     </row>
@@ -5570,39 +5572,39 @@
         <v>2670</v>
       </c>
       <c r="D71" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-3.2972972972972983</v>
       </c>
       <c r="E71" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-349.45945945945959</v>
       </c>
       <c r="F71" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1152.2717311906508</v>
       </c>
       <c r="G71" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>122121.91380569768</v>
       </c>
       <c r="H71" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>23.397089742679768</v>
       </c>
       <c r="I71" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-5.3970897426797677</v>
       </c>
       <c r="J71" s="19">
-        <f>(B71-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>10.872169466764067</v>
       </c>
       <c r="K71" s="19">
-        <f>(H71-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>4.409128313685291</v>
       </c>
       <c r="L71" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>29.12857769053916</v>
       </c>
     </row>
@@ -5617,39 +5619,39 @@
         <v>2160</v>
       </c>
       <c r="D72" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.7027027027027017</v>
       </c>
       <c r="E72" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-859.45945945945959</v>
       </c>
       <c r="F72" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-1463.403944485025</v>
       </c>
       <c r="G72" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>738670.56245434645</v>
       </c>
       <c r="H72" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>26.461520016799422</v>
       </c>
       <c r="I72" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-3.4615200167994225</v>
       </c>
       <c r="J72" s="19">
-        <f>(B72-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>2.8991964937910852</v>
       </c>
       <c r="K72" s="19">
-        <f>(H72-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>26.669196296621916</v>
       </c>
       <c r="L72" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>11.982120826703074</v>
       </c>
     </row>
@@ -5664,39 +5666,39 @@
         <v>2040</v>
       </c>
       <c r="D73" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.702702702702702</v>
       </c>
       <c r="E73" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-979.45945945945959</v>
       </c>
       <c r="F73" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-19297.998539079621</v>
       </c>
       <c r="G73" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>959340.83272461675</v>
       </c>
       <c r="H73" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>27.182562434239344</v>
       </c>
       <c r="I73" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>13.817437565760656</v>
       </c>
       <c r="J73" s="19">
-        <f>(B73-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>388.19649379108836</v>
       </c>
       <c r="K73" s="19">
-        <f>(H73-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>34.636345732105475</v>
       </c>
       <c r="L73" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>190.92158088369376</v>
       </c>
     </row>
@@ -5711,39 +5713,39 @@
         <v>1930</v>
       </c>
       <c r="D74" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E74" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-1089.4594594594596</v>
       </c>
       <c r="F74" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-4033.9444850255654</v>
       </c>
       <c r="G74" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1186921.9138056978</v>
       </c>
       <c r="H74" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>27.843517983559266</v>
       </c>
       <c r="I74" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-2.8435179835592663</v>
       </c>
       <c r="J74" s="19">
-        <f>(B74-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>13.710007304601891</v>
       </c>
       <c r="K74" s="19">
-        <f>(H74-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>42.853005273244115</v>
       </c>
       <c r="L74" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8.0855945228249553</v>
       </c>
     </row>
@@ -5758,39 +5760,39 @@
         <v>1990</v>
       </c>
       <c r="D75" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.7027027027027017</v>
       </c>
       <c r="E75" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-1029.4594594594596</v>
       </c>
       <c r="F75" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-3811.7823228634034</v>
       </c>
       <c r="G75" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1059786.7786705627</v>
       </c>
       <c r="H75" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>27.482996774839307</v>
       </c>
       <c r="I75" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-2.4829967748393074</v>
       </c>
       <c r="J75" s="19">
-        <f>(B75-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>13.710007304601891</v>
       </c>
       <c r="K75" s="19">
-        <f>(H75-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>38.262878026463483</v>
       </c>
       <c r="L75" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.1652729838624021</v>
       </c>
     </row>
@@ -5805,39 +5807,39 @@
         <v>3170</v>
       </c>
       <c r="D76" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.2972972972972983</v>
       </c>
       <c r="E76" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>150.54054054054041</v>
       </c>
       <c r="F76" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-646.91745799853868</v>
       </c>
       <c r="G76" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22662.45434623809</v>
       </c>
       <c r="H76" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>20.392746336680101</v>
       </c>
       <c r="I76" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-3.3927463366801014</v>
       </c>
       <c r="J76" s="23">
-        <f>(B76-Y_bar)^2</f>
+        <f t="shared" si="17"/>
         <v>18.466764061358663</v>
       </c>
       <c r="K76" s="23">
-        <f>(H76-Y_bar)^2</f>
+        <f t="shared" si="18"/>
         <v>0.81821244035349361</v>
       </c>
       <c r="L76" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>11.510727705056247</v>
       </c>
     </row>
@@ -5876,11 +5878,11 @@
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="37">
-        <f t="shared" ref="D78:E78" si="17">SUM(D3:D76)</f>
+        <f t="shared" ref="D78:E78" si="23">SUM(D3:D76)</f>
         <v>7.1054273576010019E-14</v>
       </c>
       <c r="E78" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-3.5470293369144201E-11</v>
       </c>
       <c r="F78" s="29">
